--- a/Data_file/Account OB partner code.xlsx
+++ b/Data_file/Account OB partner code.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="2824">
   <si>
     <t>Display Name</t>
   </si>
@@ -8489,6 +8489,9 @@
   </si>
   <si>
     <t>C0231</t>
+  </si>
+  <si>
+    <t>BSMG-680017</t>
   </si>
 </sst>
 </file>
@@ -8538,7 +8541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8546,6 +8549,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8851,13 +8857,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8868,380 +8877,354 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2167</v>
+      <c r="A2" s="4" t="s">
+        <v>2823</v>
       </c>
       <c r="B2" t="s">
-        <v>2718</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2147</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>631</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>630</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>629</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2718</v>
-      </c>
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_file/Account OB partner code.xlsx
+++ b/Data_file/Account OB partner code.xlsx
@@ -12,15 +12,16 @@
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="2824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5467" uniqueCount="2963">
   <si>
     <t>Display Name</t>
   </si>
@@ -8491,7 +8492,424 @@
     <t>C0231</t>
   </si>
   <si>
-    <t>BSMG-680017</t>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>บริษัท ริเวอร์ สเปซ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณ ภาสิณี ศีลเตชะ</t>
+  </si>
+  <si>
+    <t>น.ส. วราพร รุ่งเรืองพัฒนา</t>
+  </si>
+  <si>
+    <t>นางสาวพัทลา วงค์ด้วง</t>
+  </si>
+  <si>
+    <t>คุณพวงน้อย คงขาว</t>
+  </si>
+  <si>
+    <t>คุณอ้อน คงขาว</t>
+  </si>
+  <si>
+    <t>คุณกนกพรรณ อโณทัยยืนยง</t>
+  </si>
+  <si>
+    <t>คุณอรจิรา แซ่หลี</t>
+  </si>
+  <si>
+    <t>คุณอาภากร สุริยะโชติ</t>
+  </si>
+  <si>
+    <t>วาสนาหม่าล่า (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณเฟิร์น ศศิวิมล</t>
+  </si>
+  <si>
+    <t>คุณชาย โตปิยะบุตร</t>
+  </si>
+  <si>
+    <t>คุณ พัชราพร หลอดบุตร</t>
+  </si>
+  <si>
+    <t>คุณ ปายาภา หอมเย็นใจ</t>
+  </si>
+  <si>
+    <t>บริษัท มายออเดอร์ อินเทลลิเจนซ์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณ Rawipha</t>
+  </si>
+  <si>
+    <t>คุณ ณัฐฐ์ศศิ ธนาปภิณวิทย์</t>
+  </si>
+  <si>
+    <t>คุณ ฉัตรชัย ตันติเวชยานนท์</t>
+  </si>
+  <si>
+    <t>คุณบงกช</t>
+  </si>
+  <si>
+    <t>บริษัท สิบสามเหรียญ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณนริศ สมใจ</t>
+  </si>
+  <si>
+    <t>บริษัท เอ็มบีซี คอมมูนิเคชั่นส์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณTanut Chotchoung</t>
+  </si>
+  <si>
+    <t>คุณนานเจริญ บุญทองขาว</t>
+  </si>
+  <si>
+    <t>คุณจอมพล ผลิตวานนท์</t>
+  </si>
+  <si>
+    <t>คุณบัณฑิต พูลเกษม</t>
+  </si>
+  <si>
+    <t>บริษัท เรือนวารี รีสอร์ท จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณวันคำ(น้ำฝน)</t>
+  </si>
+  <si>
+    <t>คุณPituporn Juntratip</t>
+  </si>
+  <si>
+    <t>คุณทวีศักดิ์ วัฒนาพงษากุล</t>
+  </si>
+  <si>
+    <t>คุณสิทธิชัย สิบแก้ว</t>
+  </si>
+  <si>
+    <t>คุณดนุสรณ์</t>
+  </si>
+  <si>
+    <t>บริษัท เชียงใหม่บ้านไทยวิลเลจ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณรุ่งทิพย์ วงศ์ศิลจรรยา</t>
+  </si>
+  <si>
+    <t>คุณญาดา วงษ์เจริญสิน</t>
+  </si>
+  <si>
+    <t>คุณธนบดี เรืองชัยนิคม</t>
+  </si>
+  <si>
+    <t>คุณนเรนทร์ฤทธิ์ ชูวงศ์</t>
+  </si>
+  <si>
+    <t>คุณหะลิยะ สิงหะ</t>
+  </si>
+  <si>
+    <t>คุณคณพศ มังกรแก้ว</t>
+  </si>
+  <si>
+    <t>คุณรัสรินทร์ โล่หิรัญญานนท์</t>
+  </si>
+  <si>
+    <t>คุณวรรณิภา อ่อนทอง</t>
+  </si>
+  <si>
+    <t>บริษัท พิสิษฐ์ อินเตอร์กรุ๊ป จำกัด (สาขาที่ 00006)</t>
+  </si>
+  <si>
+    <t>นางสาววรรณพร ปีระจิตร</t>
+  </si>
+  <si>
+    <t>คุณทัศนีย์ บุญประจำ</t>
+  </si>
+  <si>
+    <t>คุณพงษ์ศักดิ์ พุกรอด</t>
+  </si>
+  <si>
+    <t>คุณเบญญดา</t>
+  </si>
+  <si>
+    <t>คุณกุญช์กรณ์ ศรีวิบูลย์ชัย</t>
+  </si>
+  <si>
+    <t>คุณสาทิพย์ มีสะอาด</t>
+  </si>
+  <si>
+    <t>คุณวีรยา คล้ายนิล</t>
+  </si>
+  <si>
+    <t>คุณสมบัติ จำปาพันธ์</t>
+  </si>
+  <si>
+    <t>คุณชนิสรา ทองสมุทร</t>
+  </si>
+  <si>
+    <t>คุณนพปฎล ชวนะภูธร</t>
+  </si>
+  <si>
+    <t>คุณกษมา เคนท้าว</t>
+  </si>
+  <si>
+    <t>คุณวรรณกานต์ ปรางอ่อน</t>
+  </si>
+  <si>
+    <t>คุณสราริน พรานนท์สถิตย์</t>
+  </si>
+  <si>
+    <t>คุณบุ๋ม</t>
+  </si>
+  <si>
+    <t>คุณบรรพต คุณบอล</t>
+  </si>
+  <si>
+    <t>นายทศวรรษ ข่ายสุวรรณ</t>
+  </si>
+  <si>
+    <t>คุณพูลสุข พันธุ์วิเชียร</t>
+  </si>
+  <si>
+    <t>คุณนัชรีย์ ฮอลล์</t>
+  </si>
+  <si>
+    <t>คุณศศิภา ชลายน</t>
+  </si>
+  <si>
+    <t>คุณวีระ</t>
+  </si>
+  <si>
+    <t>คุณชัย สันติสุข</t>
+  </si>
+  <si>
+    <t>คุณชวนาท นิพัทธมานนท์</t>
+  </si>
+  <si>
+    <t>คุณชัย สันติ</t>
+  </si>
+  <si>
+    <t>คุณขวัญชัย วิไลเจริญพัฒน์</t>
+  </si>
+  <si>
+    <t>บริษัท อาร์ม เทคโนโลยีส์ จำกัด</t>
+  </si>
+  <si>
+    <t>คุณพูลทรัพย์ ศรีภัทรวัฒน์</t>
+  </si>
+  <si>
+    <t>คุณปุณชนิต โชติเกษมศรี</t>
+  </si>
+  <si>
+    <t>คุณขนิษฐา บุตรโคตร</t>
+  </si>
+  <si>
+    <t>คุณปิยนุด ตันติโชคอนันต์</t>
+  </si>
+  <si>
+    <t>คุณปาณัทดา เดชาพันธุ์กุล</t>
+  </si>
+  <si>
+    <t>คุณอุไรวรรณ รัตนมนูญพร</t>
+  </si>
+  <si>
+    <t>คุณธนันต์ ชีรวินิจ</t>
+  </si>
+  <si>
+    <t>บริษัท ชิซุกะ เฮ้าส์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณสายสัมพันธ์ ผะอบเหล็ก</t>
+  </si>
+  <si>
+    <t>คุณเกษรา แสงมณี</t>
+  </si>
+  <si>
+    <t>บริษัท พิมาน พร็อพเพอร์ตี้ เซอร์วิส จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณนวพร ชวนะภูธร</t>
+  </si>
+  <si>
+    <t>บริษัท ชบาทอง99 จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณวัชรพงศ์ ชีวาวัฒนานนท์</t>
+  </si>
+  <si>
+    <t>คุณปาณิสรา เอี่ยมโหมด</t>
+  </si>
+  <si>
+    <t>คุณปรารถนา วุฒิชมภู</t>
+  </si>
+  <si>
+    <t>คุณวศิน หนองบัวล่าง</t>
+  </si>
+  <si>
+    <t>คุณทชากร ผลกังวาน</t>
+  </si>
+  <si>
+    <t>คุณเชิดศักดิ์ โชติมงคลทรัพย์</t>
+  </si>
+  <si>
+    <t>Job de Graaff</t>
+  </si>
+  <si>
+    <t>คุณสุวนันท์ เพชรผา</t>
+  </si>
+  <si>
+    <t>คุณศิริรัตน์ จันทร์เกษม</t>
+  </si>
+  <si>
+    <t>บริษัท ธิงค์แพนเธอร์ สตูดิโอ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณจิรภิญญา แสนมุข</t>
+  </si>
+  <si>
+    <t>คุณนฤตา ศรีสุข</t>
+  </si>
+  <si>
+    <t>คุณJoyce</t>
+  </si>
+  <si>
+    <t>บริษัท โอนิ คอร์ป จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณสืบสกุล สืบสายพรหม</t>
+  </si>
+  <si>
+    <t>คุณอรวรรณ วิโรจน์ถาวรกิจ</t>
+  </si>
+  <si>
+    <t>บริษัท สมิทธ์ ทาวเวอร์ เชียงใหม่ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>คุณนิภา สุภาภรณ์ประดับ</t>
+  </si>
+  <si>
+    <t>คุณผุสดี ทองโปรด</t>
+  </si>
+  <si>
+    <t>คุณเกด</t>
+  </si>
+  <si>
+    <t>นาย วุฒิพงษ์ อภิชนบุตร</t>
+  </si>
+  <si>
+    <t>คุณกิตติพศว์ ป้อมปักษา</t>
+  </si>
+  <si>
+    <t>K.Sofia</t>
+  </si>
+  <si>
+    <t>คุณภารดี</t>
+  </si>
+  <si>
+    <t>คุณพจนพร จันทบุรี</t>
+  </si>
+  <si>
+    <t>คุณจิตติวรรณ ศักดิ์ศรีพิพัฒน์</t>
+  </si>
+  <si>
+    <t>คุณใจเพชร</t>
+  </si>
+  <si>
+    <t>คุณสมนึก ทามา</t>
+  </si>
+  <si>
+    <t>บริษัท เคดีแอล เอ็นจิเนีย แอนด์เซอร์วิส จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท อาร์ตเวิร์ค พลัส จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>K.Ulla Engstroem</t>
+  </si>
+  <si>
+    <t>คุณแพรริน ภาณุประสิทธิ์</t>
+  </si>
+  <si>
+    <t>นาง กรรณิกา ดิสสานนท์</t>
+  </si>
+  <si>
+    <t>คุณสันติพงษ์ เจียวิทยนันท์</t>
+  </si>
+  <si>
+    <t>คุณปวีณา ชีวะผลาบูรณ์</t>
+  </si>
+  <si>
+    <t>คุณพิมพ์พิชฌา วงศาโรจน์</t>
+  </si>
+  <si>
+    <t>นาย คณินทร์</t>
+  </si>
+  <si>
+    <t>คุณปารณีย์ ธำรงธัญวงศ์</t>
+  </si>
+  <si>
+    <t>คุณ ปิยะวรร คุณหลุยส์</t>
+  </si>
+  <si>
+    <t>คุณอิศรพงษ์ พงษ์ศิริกุล</t>
+  </si>
+  <si>
+    <t>คุณกอบชัย สัตยภิวัฒน์</t>
+  </si>
+  <si>
+    <t>TK Express ไทยลาว</t>
+  </si>
+  <si>
+    <t>บริษัท เคเค ดีไซน์ สตูดิโอ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>K.vichai</t>
+  </si>
+  <si>
+    <t>คุณชลวิทย์ มั่งคั่ง</t>
+  </si>
+  <si>
+    <t>บริษัท ม็อท สเปส จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>บริษัท ม็อท สเปส จำกัด สำนักงานใหญ่</t>
+  </si>
+  <si>
+    <t>บริษัท ชิคพร็อตเพอร์ตี้ จำกัด. (เปิดในรหัสSTWO)</t>
+  </si>
+  <si>
+    <t>V0232</t>
+  </si>
+  <si>
+    <t>BSMG-680046</t>
+  </si>
+  <si>
+    <t>BSMG-680041</t>
+  </si>
+  <si>
+    <t>V0243</t>
+  </si>
+  <si>
+    <t>V0213</t>
+  </si>
+  <si>
+    <t>BSMG-680036</t>
+  </si>
+  <si>
+    <t>BSMG-680029</t>
+  </si>
+  <si>
+    <t>V0273</t>
+  </si>
+  <si>
+    <t>BSMG-680028</t>
+  </si>
+  <si>
+    <t>V0225</t>
+  </si>
+  <si>
+    <t>BSMG-680024</t>
   </si>
 </sst>
 </file>
@@ -8857,374 +9275,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B116"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C1" t="s">
         <v>2823</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2953</v>
+      </c>
       <c r="B2" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2961</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9233,10 +9355,1170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>847</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>848</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>849</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>850</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>851</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>852</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>853</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>874</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>916</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>953</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>954</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>955</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>956</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data_file/Account OB partner code.xlsx
+++ b/Data_file/Account OB partner code.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5467" uniqueCount="2963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5457" uniqueCount="2954">
   <si>
     <t>Display Name</t>
   </si>
@@ -8879,37 +8879,10 @@
     <t>บริษัท ชิคพร็อตเพอร์ตี้ จำกัด. (เปิดในรหัสSTWO)</t>
   </si>
   <si>
-    <t>V0232</t>
-  </si>
-  <si>
-    <t>BSMG-680046</t>
-  </si>
-  <si>
-    <t>BSMG-680041</t>
-  </si>
-  <si>
-    <t>V0243</t>
-  </si>
-  <si>
-    <t>V0213</t>
-  </si>
-  <si>
-    <t>BSMG-680036</t>
-  </si>
-  <si>
-    <t>BSMG-680029</t>
-  </si>
-  <si>
-    <t>V0273</t>
-  </si>
-  <si>
-    <t>BSMG-680028</t>
-  </si>
-  <si>
-    <t>V0225</t>
-  </si>
-  <si>
-    <t>BSMG-680024</t>
+    <t>V0268</t>
+  </si>
+  <si>
+    <t>BSMG-680044</t>
   </si>
 </sst>
 </file>
@@ -9276,10 +9249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9306,46 +9279,6 @@
       </c>
       <c r="B2" t="s">
         <v>2952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2954</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2955</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2961</v>
       </c>
     </row>
   </sheetData>
